--- a/biology/Zoologie/Huan_(Terre_du_Milieu)/Huan_(Terre_du_Milieu).xlsx
+++ b/biology/Zoologie/Huan_(Terre_du_Milieu)/Huan_(Terre_du_Milieu).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huan est un chien dans le légendaire de l'écrivain britannique J. R. R. Tolkien. Il apparaît notamment dans le roman Le Silmarillion. Huan est un grand chien de chasse de la taille d'un petit cheval.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Huan fut donné à Celegorm, un des fils de Fëanor, par le Valar Oromë. Huan accompagnait Celegorm à la chasse. Il possédait des pouvoirs spéciaux, tel celui de pouvoir parler à trois reprises. Il fut aussi prophétisé qu'il ne mourrait qu'après avoir combattu le plus grand loup ayant jamais existé. Quand les Ñoldor se rebellèrent sous l'égide de Fëanor, Huan vint en Terre du Milieu avec son maître.
 Huan fut impliqué dans la quête des Silmarils dans laquelle Beren essaya de récupérer un Silmaril de Morgoth le  noir ennemi du monde. Quand Beren quitta Lúthien pour aller à Angband avec Finrod Felagund, il fut capturé et emprisonné à Tol-in-Gaurhoth et Lúthien décida de se porter à son secours. Dans son périple pour aller secourir Beren, elle fut interceptée par Celegorm et Curufin — qui vivaient alors à Nargothrond — pendant qu'ils chassaient. Huan sentit Lúthien et la captura pour la porter devant Celegorm. Ce dernier et Curufin ne révélèrent pas à Lúthien qu'ils avaient envoyés Beren à une mort certaine donnée par Sauron, et l'emprisonnèrent à Nargothrond pour « sa propre protection », ourdissant en secret un mariage entre Lúthien et Celegorm, forçant ainsi une alliance avec Thingol, le père de Lúthien.
@@ -547,9 +561,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huan signifie « chien de meute »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huan signifie « chien de meute ».
 </t>
         </is>
       </c>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,9 +650,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les histoires dans lesquelles Huan apparaît n'ont pas été adaptées à la télévision, au cinéma ou à la radio; Il a néanmoins inspiré les dessinateurs, comme Ted Nasmith[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les histoires dans lesquelles Huan apparaît n'ont pas été adaptées à la télévision, au cinéma ou à la radio; Il a néanmoins inspiré les dessinateurs, comme Ted Nasmith.
 </t>
         </is>
       </c>
